--- a/AnDS cw/Results.xlsx
+++ b/AnDS cw/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Partition Algorithm</t>
   </si>
@@ -32,18 +32,89 @@
     <t>Clark-Wright Algorithm</t>
   </si>
   <si>
-    <t>Times</t>
+    <t>Costs</t>
   </si>
   <si>
-    <t>Costs</t>
+    <t>fail00002</t>
+  </si>
+  <si>
+    <t>fail00004</t>
+  </si>
+  <si>
+    <t>rand00010</t>
+  </si>
+  <si>
+    <t>rand00020</t>
+  </si>
+  <si>
+    <t>rand00030</t>
+  </si>
+  <si>
+    <t>rand00040</t>
+  </si>
+  <si>
+    <t>rand00050</t>
+  </si>
+  <si>
+    <t>rand00060</t>
+  </si>
+  <si>
+    <t>rand00070</t>
+  </si>
+  <si>
+    <t>rand00080</t>
+  </si>
+  <si>
+    <t>rand00090</t>
+  </si>
+  <si>
+    <t>rand00100</t>
+  </si>
+  <si>
+    <t>rand00200</t>
+  </si>
+  <si>
+    <t>rand00300</t>
+  </si>
+  <si>
+    <t>rand00400</t>
+  </si>
+  <si>
+    <t>rand00500</t>
+  </si>
+  <si>
+    <t>rand00600</t>
+  </si>
+  <si>
+    <t>rand00700</t>
+  </si>
+  <si>
+    <t>rand00800</t>
+  </si>
+  <si>
+    <t>rand00900</t>
+  </si>
+  <si>
+    <t>rand01000</t>
+  </si>
+  <si>
+    <t>Average Times (ms) - average over 100 iterations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -71,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,6 +177,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Costs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -146,7 +243,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -169,7 +266,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$23</c:f>
+              <c:f>Sheet1!$B$4:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -201,7 +298,7 @@
                   <c:v>5953.0478016177603</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7378.5099653577199</c:v>
+                  <c:v>7192.3788168320198</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8413.7986590308792</c:v>
@@ -210,31 +307,31 @@
                   <c:v>9216.9845398956895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14896.3780035449</c:v>
+                  <c:v>15035.6086930045</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21183.510565685701</c:v>
+                  <c:v>21643.2671138121</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28419.6260340552</c:v>
+                  <c:v>27494.853462420499</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34463.532110551198</c:v>
+                  <c:v>34313.1652323956</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42176.683334389803</c:v>
+                  <c:v>40707.593545427597</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44952.756804317098</c:v>
+                  <c:v>45299.042302941503</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>52374.030587388101</c:v>
+                  <c:v>52330.759611480498</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59912.524461449502</c:v>
+                  <c:v>60033.121931086403</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63955.005695428503</c:v>
+                  <c:v>63142.974179637597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -246,7 +343,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -269,7 +366,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$23</c:f>
+              <c:f>Sheet1!$C$4:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -350,11 +447,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="783868784"/>
-        <c:axId val="783864864"/>
+        <c:axId val="612362960"/>
+        <c:axId val="612364640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="783868784"/>
+        <c:axId val="612362960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,7 +494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783864864"/>
+        <c:crossAx val="612364640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -405,7 +502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="783864864"/>
+        <c:axId val="612364640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,7 +553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783868784"/>
+        <c:crossAx val="612362960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -552,6 +649,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average Time (ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -593,7 +715,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$25</c:f>
+              <c:f>Sheet1!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -616,72 +738,72 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$46</c:f>
+              <c:f>Sheet1!$B$30:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.36899999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6999999999999994E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.152</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45200000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47899999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34799999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39700000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53800000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66200000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46700000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7769999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6440000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6339999999999999</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.327</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5890000000000004</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.85</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.3239999999999998</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.151</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -693,7 +815,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$25</c:f>
+              <c:f>Sheet1!$C$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -716,72 +838,72 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$26:$C$46</c:f>
+              <c:f>Sheet1!$C$30:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.35599999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64500000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.07</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4770000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0539999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4079999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.794</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9529999999999998</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5759999999999996</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.754999999999999</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.948999999999998</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105.15900000000001</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>163.9</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>260.88900000000001</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>400.553</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>557.54600000000005</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>804.81</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1045.5830000000001</c:v>
+                  <c:v>1025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,11 +919,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="714594608"/>
-        <c:axId val="714592368"/>
+        <c:axId val="612360720"/>
+        <c:axId val="612366880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="714594608"/>
+        <c:axId val="612360720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="714592368"/>
+        <c:crossAx val="612366880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -852,7 +974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="714592368"/>
+        <c:axId val="612366880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +1025,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="714594608"/>
+        <c:crossAx val="612360720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2102,13 +2224,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2132,13 +2254,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2424,38 +2546,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C46"/>
+  <dimension ref="A2:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>565.68542494923804</v>
-      </c>
-      <c r="C3">
-        <v>565.68542494923804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>565.68542494923804</v>
       </c>
@@ -2464,338 +2584,472 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
       <c r="B5">
+        <v>565.68542494923804</v>
+      </c>
+      <c r="C5">
+        <v>565.68542494923804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>1488.5795039493601</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1471.6987914639899</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>2484.8766403576301</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>2374.6424304000102</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>3192.6748552584099</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>3251.0923697307298</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>3424.0696145626298</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>3393.0560346062798</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>5537.5969839016298</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>4687.6674121368596</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>5784.5904591610997</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>5063.7620930165704</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>5953.0478016177603</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>5049.6422913325696</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>7378.5099653577199</v>
-      </c>
-      <c r="C12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7192.3788168320198</v>
+      </c>
+      <c r="C13">
         <v>6218.1963091540701</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>8413.7986590308792</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>6909.9767357512601</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>9216.9845398956895</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>7529.2607519569401</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>14896.3780035449</v>
-      </c>
-      <c r="C15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15035.6086930045</v>
+      </c>
+      <c r="C16">
         <v>12968.045025850801</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>21183.510565685701</v>
-      </c>
-      <c r="C16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>21643.2671138121</v>
+      </c>
+      <c r="C17">
         <v>16958.3961051919</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>28419.6260340552</v>
-      </c>
-      <c r="C17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>27494.853462420499</v>
+      </c>
+      <c r="C18">
         <v>22644.612934975001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>34463.532110551198</v>
-      </c>
-      <c r="C18">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>34313.1652323956</v>
+      </c>
+      <c r="C19">
         <v>27996.141660154201</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>42176.683334389803</v>
-      </c>
-      <c r="C19">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>40707.593545427597</v>
+      </c>
+      <c r="C20">
         <v>33416.341384400897</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>44952.756804317098</v>
-      </c>
-      <c r="C20">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>45299.042302941503</v>
+      </c>
+      <c r="C21">
         <v>37265.692709761002</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>52374.030587388101</v>
-      </c>
-      <c r="C21">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>52330.759611480498</v>
+      </c>
+      <c r="C22">
         <v>42246.390958001102</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>59912.524461449502</v>
-      </c>
-      <c r="C22">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>60033.121931086403</v>
+      </c>
+      <c r="C23">
         <v>48802.4124369317</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>63955.005695428503</v>
-      </c>
-      <c r="C23">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>63142.974179637597</v>
+      </c>
+      <c r="C24">
         <v>51398.864161755402</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>2</v>
       </c>
-      <c r="B26">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="C26">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="C27">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>0.152</v>
-      </c>
-      <c r="C28">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="C29">
-        <v>0.64500000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="C30">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>0.46</v>
-      </c>
-      <c r="C31">
-        <v>1.099</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="C32">
-        <v>1.4770000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="C33">
-        <v>2.0539999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="C34">
-        <v>2.4079999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="C35">
-        <v>2.794</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="C36">
-        <v>3.9529999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="C37">
-        <v>4.5759999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>1.109</v>
-      </c>
-      <c r="C38">
-        <v>16.754999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>1.7769999999999999</v>
-      </c>
-      <c r="C39">
-        <v>42.948999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>2.6440000000000001</v>
-      </c>
-      <c r="C40">
-        <v>105.15900000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
       <c r="B41">
-        <v>3.6339999999999999</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>163.9</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
       <c r="B42">
-        <v>4.327</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>260.88900000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
       <c r="B43">
-        <v>5.5890000000000004</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>400.553</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
       <c r="B44">
-        <v>7.85</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>557.54600000000005</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
       <c r="B45">
-        <v>8.3239999999999998</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>804.81</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
       <c r="B46">
-        <v>11.151</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>1045.5830000000001</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/AnDS cw/Results.xlsx
+++ b/AnDS cw/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Graham\Desktop\uni\yr 3\AnDS\cw\AnDS cw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40111906\Desktop\ands\AnDS cw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Partition Algorithm</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Average Times (ms) - average over 100 iterations</t>
+  </si>
+  <si>
+    <t>Nodes</t>
   </si>
 </sst>
 </file>
@@ -264,6 +267,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$4:$B$24</c:f>
@@ -364,6 +439,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$4:$C$24</c:f>
@@ -447,16 +594,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="612362960"/>
-        <c:axId val="612364640"/>
+        <c:axId val="278793776"/>
+        <c:axId val="278795736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="612362960"/>
+        <c:axId val="278793776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Node Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -494,7 +697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612364640"/>
+        <c:crossAx val="278795736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -502,7 +705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="612364640"/>
+        <c:axId val="278795736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,6 +725,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -553,7 +812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612362960"/>
+        <c:crossAx val="278793776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -736,6 +995,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$30:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$30:$B$50</c:f>
@@ -836,6 +1167,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$30:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$30:$C$50</c:f>
@@ -919,16 +1322,76 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="612360720"/>
-        <c:axId val="612366880"/>
+        <c:axId val="278796520"/>
+        <c:axId val="278796912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="612360720"/>
+        <c:axId val="278796520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Node</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -966,7 +1429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612366880"/>
+        <c:crossAx val="278796912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -974,7 +1437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="612366880"/>
+        <c:axId val="278796912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,6 +1457,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1025,7 +1544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612360720"/>
+        <c:crossAx val="278796520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2222,16 +2741,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50987</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>116821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>65555</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2253,13 +2772,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>89647</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>89647</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -2546,10 +3065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C50"/>
+  <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,20 +3078,23 @@
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +3104,11 @@
       <c r="C4">
         <v>565.68542494923804</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2593,8 +3118,11 @@
       <c r="C5">
         <v>565.68542494923804</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2604,8 +3132,11 @@
       <c r="C6">
         <v>1471.6987914639899</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2615,8 +3146,11 @@
       <c r="C7">
         <v>2374.6424304000102</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2626,8 +3160,11 @@
       <c r="C8">
         <v>3251.0923697307298</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2637,8 +3174,11 @@
       <c r="C9">
         <v>3393.0560346062798</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2648,8 +3188,11 @@
       <c r="C10">
         <v>4687.6674121368596</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2659,8 +3202,11 @@
       <c r="C11">
         <v>5063.7620930165704</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2670,8 +3216,11 @@
       <c r="C12">
         <v>5049.6422913325696</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2681,8 +3230,11 @@
       <c r="C13">
         <v>6218.1963091540701</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2692,8 +3244,11 @@
       <c r="C14">
         <v>6909.9767357512601</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2703,8 +3258,11 @@
       <c r="C15">
         <v>7529.2607519569401</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2714,8 +3272,11 @@
       <c r="C16">
         <v>12968.045025850801</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2725,8 +3286,11 @@
       <c r="C17">
         <v>16958.3961051919</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2736,8 +3300,11 @@
       <c r="C18">
         <v>22644.612934975001</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2747,8 +3314,11 @@
       <c r="C19">
         <v>27996.141660154201</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2758,8 +3328,11 @@
       <c r="C20">
         <v>33416.341384400897</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2769,8 +3342,11 @@
       <c r="C21">
         <v>37265.692709761002</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2780,8 +3356,11 @@
       <c r="C22">
         <v>42246.390958001102</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2791,8 +3370,11 @@
       <c r="C23">
         <v>48802.4124369317</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2802,21 +3384,27 @@
       <c r="C24">
         <v>51398.864161755402</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -2826,8 +3414,11 @@
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2837,8 +3428,11 @@
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2848,8 +3442,11 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2859,8 +3456,11 @@
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2870,8 +3470,11 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2881,8 +3484,11 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2892,8 +3498,11 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2903,8 +3512,11 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2914,8 +3526,11 @@
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2925,8 +3540,11 @@
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2936,8 +3554,11 @@
       <c r="C40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -2947,8 +3568,11 @@
       <c r="C41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2958,8 +3582,11 @@
       <c r="C42">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -2969,8 +3596,11 @@
       <c r="C43">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2980,8 +3610,11 @@
       <c r="C44">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -2991,8 +3624,11 @@
       <c r="C45">
         <v>160</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -3002,8 +3638,11 @@
       <c r="C46">
         <v>261</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -3013,8 +3652,11 @@
       <c r="C47">
         <v>397</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -3024,8 +3666,11 @@
       <c r="C48">
         <v>570</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -3035,8 +3680,11 @@
       <c r="C49">
         <v>802</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -3045,6 +3693,9 @@
       </c>
       <c r="C50">
         <v>1025</v>
+      </c>
+      <c r="D50">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
